--- a/data_raw/peat_tax.xlsx
+++ b/data_raw/peat_tax.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukri-my.sharepoint.com/personal/james_currer_iuk_ukri_org/Documents/R/emap_macro/data_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{F7C58C61-106E-4EED-A1E9-10A518CE5BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE646CE4-E24E-4112-834B-767738285CAB}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{F7C58C61-106E-4EED-A1E9-10A518CE5BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB739457-E034-4D0F-9985-194C4C0FB420}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{389E9672-80B6-46EE-A05F-1CEB8C4731AA}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="12773" xr2:uid="{389E9672-80B6-46EE-A05F-1CEB8C4731AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Year</t>
   </si>
@@ -44,14 +44,31 @@
     <t>Tax Rate</t>
   </si>
   <si>
-    <t>Peat Consumption</t>
+    <t>Peat Consumption tj</t>
+  </si>
+  <si>
+    <t>Peat Consumption mj</t>
+  </si>
+  <si>
+    <t>tax revenue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-[$€-2]\ * #,##0_-;\-[$€-2]\ * #,##0_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,17 +94,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -399,18 +422,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4850BF4A-7C02-4DCE-BD8C-600F0AA75A93}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -420,8 +445,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2012</v>
       </c>
@@ -431,8 +462,16 @@
       <c r="C2" s="1">
         <v>66355</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <f>C2*1000000</f>
+        <v>66355000000</v>
+      </c>
+      <c r="E2" s="2">
+        <f>D2*B2</f>
+        <v>126074500000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2013</v>
       </c>
@@ -442,8 +481,16 @@
       <c r="C3" s="1">
         <v>57637</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <f t="shared" ref="D3:D12" si="0">C3*1000000</f>
+        <v>57637000000</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E12" si="1">D3*B3</f>
+        <v>109510300000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2014</v>
       </c>
@@ -453,8 +500,16 @@
       <c r="C4" s="1">
         <v>61119</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>61119000000</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="1"/>
+        <v>116126100000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2015</v>
       </c>
@@ -464,8 +519,16 @@
       <c r="C5" s="1">
         <v>57990</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>57990000000</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="1"/>
+        <v>110181000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2016</v>
       </c>
@@ -475,8 +538,16 @@
       <c r="C6" s="1">
         <v>56336</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>56336000000</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="1"/>
+        <v>107038400000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2017</v>
       </c>
@@ -486,8 +557,16 @@
       <c r="C7" s="1">
         <v>53860</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>53860000000</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="1"/>
+        <v>102334000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2018</v>
       </c>
@@ -497,8 +576,16 @@
       <c r="C8" s="1">
         <v>61877</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>61877000000</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="1"/>
+        <v>117566300000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>2019</v>
       </c>
@@ -508,8 +595,16 @@
       <c r="C9" s="1">
         <v>56652</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>56652000000</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="1"/>
+        <v>169956000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -519,8 +614,16 @@
       <c r="C10" s="1">
         <v>42930</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>42930000000</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="1"/>
+        <v>128790000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>2021</v>
       </c>
@@ -530,8 +633,16 @@
       <c r="C11" s="1">
         <v>38252</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>38252000000</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="1"/>
+        <v>218036400000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>2022</v>
       </c>
@@ -540,6 +651,22 @@
       </c>
       <c r="C12" s="1">
         <v>36670</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>36670000000</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="1"/>
+        <v>209019000000</v>
+      </c>
+      <c r="F12" s="3">
+        <f>(E12-E8)/E8</f>
+        <v>0.77788192704882264</v>
+      </c>
+      <c r="G12" s="3">
+        <f>(C12-C8)/C8</f>
+        <v>-0.4073726909837258</v>
       </c>
     </row>
   </sheetData>
